--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-iam-project-category.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-iam-project-category.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -1912,6 +1912,9 @@
   </si>
   <si>
     <t>DISPLAY_FLAG</t>
+  </si>
+  <si>
+    <t>sequence</t>
   </si>
   <si>
     <t>*</t>
@@ -1931,13 +1934,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1966,12 +1969,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2034,6 +2031,110 @@
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2044,39 +2145,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2095,93 +2176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2269,7 +2266,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,7 +2332,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,37 +2404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,115 +2434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,15 +2547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2576,50 +2564,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2642,187 +2589,237 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2834,46 +2831,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2886,7 +2882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3292,7 +3288,7 @@
     <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -3306,79 +3302,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3386,56 +3382,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3445,64 +3441,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3525,10 +3521,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3567,7 +3563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>43960</v>
       </c>
@@ -3601,29 +3597,35 @@
       <c r="K7" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="4:11">
+    <row r="8" spans="4:12">
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
       </c>
       <c r="K8" s="15">
         <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="4:11">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-iam-project-category.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-iam-project-category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21731" windowHeight="10020" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -1905,7 +1905,10 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>name:zh_CN</t>
+  </si>
+  <si>
+    <t>name:en_US</t>
   </si>
   <si>
     <t>BUILT_IN_FLAG</t>
@@ -1927,6 +1930,9 @@
   </si>
   <si>
     <t>敏捷管理</t>
+  </si>
+  <si>
+    <t>Agile</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1940,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="42">
@@ -2037,6 +2043,65 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2048,52 +2113,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2114,50 +2168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2168,17 +2183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,7 +2266,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,91 +2410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,79 +2440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,6 +2554,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2566,7 +2587,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2595,45 +2640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2650,145 +2656,145 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3283,7 +3289,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
@@ -3312,7 +3318,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3326,7 +3332,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
@@ -3367,7 +3373,7 @@
       </c>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
@@ -3424,7 +3430,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
@@ -3447,7 +3453,7 @@
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="44" t="s">
         <v>31</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="44" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="44" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
@@ -3497,7 +3503,7 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
@@ -3521,20 +3527,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="11.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="22.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="10" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3563,7 +3569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>43960</v>
       </c>
@@ -3588,65 +3594,73 @@
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="4:13">
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11">
+    <row r="9" spans="4:12">
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="4:11">
+    <row r="10" spans="4:12">
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" s="14"/>
